--- a/策划文档/美术需求文档.xlsx
+++ b/策划文档/美术需求文档.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="界面UI相关" sheetId="1" r:id="rId1"/>
     <sheet name="人物相关" sheetId="2" r:id="rId2"/>
     <sheet name="图标ICOn" sheetId="3" r:id="rId3"/>
+    <sheet name="对话CG" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>饭店经营界面</t>
   </si>
@@ -47,11 +48,59 @@
   <si>
     <t>美食类AppIcon</t>
   </si>
+  <si>
+    <t>对话过程中出现CG图(草图)</t>
+  </si>
+  <si>
+    <t>喵老师剧情</t>
+  </si>
+  <si>
+    <t>女生抱着一个很大的熊布偶</t>
+  </si>
+  <si>
+    <t>喵老师抱着熊让熊招手</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喵老师敲熊的脑袋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名为伊万先生的熊熊机器人身上冒出了火星</t>
+    </r>
+  </si>
+  <si>
+    <t>章鱼剧情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【掏出笔记本】</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -67,39 +116,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -115,14 +135,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,6 +174,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,7 +239,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,49 +275,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,121 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,21 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +498,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,204 +571,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1827,8 +1878,8 @@
   <sheetPr/>
   <dimension ref="C4:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1884,13 +1935,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="12.0333333333333" customWidth="1"/>
   </cols>
@@ -1932,9 +1983,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="42" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/策划文档/美术需求文档.xlsx
+++ b/策划文档/美术需求文档.xlsx
@@ -10,14 +10,14 @@
     <sheet name="界面UI相关" sheetId="1" r:id="rId1"/>
     <sheet name="人物相关" sheetId="2" r:id="rId2"/>
     <sheet name="图标ICOn" sheetId="3" r:id="rId3"/>
-    <sheet name="对话CG" sheetId="4" r:id="rId4"/>
+    <sheet name="9月份需求" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>饭店经营界面</t>
   </si>
@@ -52,49 +52,199 @@
     <t>对话过程中出现CG图(草图)</t>
   </si>
   <si>
-    <t>喵老师剧情</t>
-  </si>
-  <si>
-    <t>女生抱着一个很大的熊布偶</t>
-  </si>
-  <si>
-    <t>喵老师抱着熊让熊招手</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喵老师敲熊的脑袋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名为伊万先生的熊熊机器人身上冒出了火星</t>
-    </r>
-  </si>
-  <si>
-    <t>章鱼剧情</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【掏出笔记本】</t>
-    </r>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>界面相关</t>
+  </si>
+  <si>
+    <t>厨房界面(选择食材,调料界面)</t>
+  </si>
+  <si>
+    <t>手机UI 新闻APP图标</t>
+  </si>
+  <si>
+    <t>顶部导航栏+新闻列表</t>
+  </si>
+  <si>
+    <t>新闻APP主界面(随便参考个国内网易新闻之类的)</t>
+  </si>
+  <si>
+    <t>新闻详细界面</t>
+  </si>
+  <si>
+    <t>打飞机APP图标</t>
+  </si>
+  <si>
+    <t>玩家飞机</t>
+  </si>
+  <si>
+    <t>参考微信小游戏打飞机</t>
+  </si>
+  <si>
+    <t>敌机 三种类型(简单,中等,难)</t>
+  </si>
+  <si>
+    <t>天气APP图标</t>
+  </si>
+  <si>
+    <t>晴天,雨天,下雪,台风,暴雪</t>
+  </si>
+  <si>
+    <t>经营结束后 一天结算界面</t>
+  </si>
+  <si>
+    <t>卖出料理列表</t>
+  </si>
+  <si>
+    <t>模拟经营类游戏比如牧场物语</t>
+  </si>
+  <si>
+    <t>卖出饮料列表</t>
+  </si>
+  <si>
+    <t>NPC好感度增长</t>
+  </si>
+  <si>
+    <t>进入经营界面前,日期翻动界面</t>
+  </si>
+  <si>
+    <t>人物剧情演出相关通用</t>
+  </si>
+  <si>
+    <t>emoji表情</t>
+  </si>
+  <si>
+    <t>把人物脸部表情拆分开</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>困</t>
+  </si>
+  <si>
+    <t>食材</t>
+  </si>
+  <si>
+    <t>UI界面(厨房)</t>
+  </si>
+  <si>
+    <t>炒菜</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>土豆切成块的状态</t>
+  </si>
+  <si>
+    <t>土豆切成片的状态</t>
+  </si>
+  <si>
+    <t>做菜相关</t>
+  </si>
+  <si>
+    <t>盐瓶子</t>
+  </si>
+  <si>
+    <t>炒菜时候下面煤气灶的火焰</t>
+  </si>
+  <si>
+    <t>炒菜时候一个背景图</t>
+  </si>
+  <si>
+    <t>醋瓶子</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>烧烤架子和底下炭火 切成三张图片</t>
+  </si>
+  <si>
+    <t>架子</t>
+  </si>
+  <si>
+    <t>烧烤背景图</t>
+  </si>
+  <si>
+    <t>木炭</t>
+  </si>
+  <si>
+    <t>火光</t>
+  </si>
+  <si>
+    <t>烧烤架子傍边风扇</t>
+  </si>
+  <si>
+    <t>风扇叶子</t>
+  </si>
+  <si>
+    <t>烧烤架 最好改成铁或木头架子</t>
+  </si>
+  <si>
+    <t>风扇吹出来的风</t>
+  </si>
+  <si>
+    <t>木炭飞溅出来的火星</t>
+  </si>
+  <si>
+    <t>食物烧烤进度条</t>
+  </si>
+  <si>
+    <t>人物名</t>
+  </si>
+  <si>
+    <t>面部表情</t>
+  </si>
+  <si>
+    <t>身体动作</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>困,黑眼圈</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>春秋</t>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
+    <t>待机状态(有电脑)</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>烦恼</t>
+  </si>
+  <si>
+    <t>待机状态(没有电脑)</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>喝酒后脸红</t>
   </si>
 </sst>
 </file>
@@ -266,12 +416,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -592,7 +766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +790,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -634,25 +808,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,13 +877,46 @@
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1589,6 +1784,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9852025" y="1212215"/>
+          <a:ext cx="1143000" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1998,51 +2240,300 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="22.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="43.0166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" ht="42" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:2">
-      <c r="B5" s="1" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>